--- a/biology/Botanique/Liste_des_principales_adventices_en_France/Liste_des_principales_adventices_en_France.xlsx
+++ b/biology/Botanique/Liste_des_principales_adventices_en_France/Liste_des_principales_adventices_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principales adventices (ou mauvaises herbes ou herbes indésirables) présentes dans les cultures en France métropolitaine sont indiquées ci-dessous, avec leur nom commun, leur nom latin et leur famille botanique.
-Il existe en France 220 espèces d'adventices importantes[1], mais 1 200 espèces peuvent se rencontrer dans les agroécosystèmes[2] et 26 sont très fréquentes[3]. Les adventices appartiennent à un grand nombre de familles botaniques mais plus de la moitié des espèces fréquemment rencontrées appartiennent à l’une des familles suivantes : Astéracées, Poacées, Cyperacées, Polygonacées, Brassicacées et Apiacées[3],[4]. La famille des Poacées (communément appelées graminées) contient le plus grand nombre d'adventices.
+Il existe en France 220 espèces d'adventices importantes, mais 1 200 espèces peuvent se rencontrer dans les agroécosystèmes et 26 sont très fréquentes. Les adventices appartiennent à un grand nombre de familles botaniques mais plus de la moitié des espèces fréquemment rencontrées appartiennent à l’une des familles suivantes : Astéracées, Poacées, Cyperacées, Polygonacées, Brassicacées et Apiacées,. La famille des Poacées (communément appelées graminées) contient le plus grand nombre d'adventices.
 Certaines adventices peuvent être des repousses de plantes cultivées, des plantes cultivées dans un autre contexte (par exemple, le vulpin des champs, plante fourragère de prairie), ou des ancêtres sauvages de plantes cultivées (cas de l'avoine et du seigle).
 Bon nombre d'entre elles sont dénommées de différentes façons selon les régions, ou sont dénommées de la même façon alors qu'il s'agit d'espèces différentes.
 </t>
@@ -514,9 +526,11 @@
           <t>Liste des principales adventices en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sommaire :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommaire :
 Haut – A
 B
 C
@@ -543,8 +557,43 @@
 X
 Y
 Z
-A
-Abutilon de Théophraste (Abutilon theophrasti) - Malvacées
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des principales adventices en France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Abutilon de Théophraste (Abutilon theophrasti) - Malvacées
 Achillée mille-feuilles (Achillea millefolium L.) - Astéracées
 Adonis d'été ou goutte de sang (Adonis aestivalis L.) - Renonculacées
 Agrostide ou jouet du vent (Apera spica-venti P.Beauv.) - Poacées
@@ -557,50 +606,288 @@
 Armoise commune (Artemisa vulgaris L.) - Astéracées
 Arroche hastée (Atriplex hastata L.) - Chénopodiacées
 Arroche étalée (Atriplex patula L.) - Chénopodiacées
-Avoine à chapelet sous-espèce de l'avoine élevée (Arrhenatherum elatius bulbosum Presl.) - Poacées
-B
-Barbarée commune herbe de sainte Barbe (Barbarea vulgaris R.Br.) - Brassicacées
+Avoine à chapelet sous-espèce de l'avoine élevée (Arrhenatherum elatius bulbosum Presl.) - Poacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des principales adventices en France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Barbarée commune herbe de sainte Barbe (Barbarea vulgaris R.Br.) - Brassicacées
 Bifora rayonnant (Bifora radians Bieb.) - Apiacées
 Bleuet des champs (Centaurea cyanus L.) - Astéracées
 Bourrache officinale (Borago officinalis L.) - Boraginacées
 Bourse à pasteur (Capsella bursa-pastoris) - Brassicacées
 Brome stérile (Bromus sterilis L.) - Poacées
-Buglosse d'Italie ou fausse bourrache - (Anchusa azurea Mill.) - Boraginacées
-C
-Camomille (Anthemis sp.) - Astéracées
+Buglosse d'Italie ou fausse bourrache - (Anchusa azurea Mill.) - Boraginacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des principales adventices en France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Camomille (Anthemis sp.) - Astéracées
 Cardamine hirsute (Cardamine hirsuta L.) - Brassicacées
 Carotte sauvage (Daucus carota L.) - Apiacées
 Chanvre d'eau (Bidens frondosa L.) - Astéracées
-Chardon des champs (Cirsium arvense Scop.) - Astéracées[5]
+Chardon des champs (Cirsium arvense Scop.) - Astéracées
 Chélidoine (Chelidonium majus L.) - Papavéracées
 Chénopode à nombreuses graines (Chenopodium polyspermum L.) - Chénopodiacées
-Chénopode blanc (Chenopodium album L.) - Chénopodiacées[6]
+Chénopode blanc (Chenopodium album L.) - Chénopodiacées
 Chénopode hybride (Chenopodium hybridum L.) - Chénopodiacées
-Chiendent officinal (Elytrigia repens L. ou Agropyron repens L.) - Poacées[7]
+Chiendent officinal (Elytrigia repens L. ou Agropyron repens L.) - Poacées
 Chiendent pied-de-poule (Cynodon dactylon (L.) Pers) - Poacées
 Chrysanthème des moissons ou marguerite dorée (Chrysanthemum segetum L.) - Astéracées
 Compagnon blanc (Lychnis dioica L.) - Caryophyllacées
-Coquelicot (Papaver rhoeas L.) - Papavéracées[8]
-Crételle des prés (Cynosurus cristatus L.) - Poacées
-D
-Datura stramoine ou pomme épineuse (Datura stramonium L.) - Solanacées
-Digitaire sanguine (Digitaria sanguinalis Scop.) - Poacées
-E
-Érigéron du Canada (Conyza canadensis) - Astéracées[9]
+Coquelicot (Papaver rhoeas L.) - Papavéracées
+Crételle des prés (Cynosurus cristatus L.) - Poacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des principales adventices en France</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Datura stramoine ou pomme épineuse (Datura stramonium L.) - Solanacées
+Digitaire sanguine (Digitaria sanguinalis Scop.) - Poacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des principales adventices en France</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Érigéron du Canada (Conyza canadensis) - Astéracées
 Euphorbe réveille-matin (Euphorbia helioscopia L.) - Euphorbiacées
-Erodium à feuilles de ciguë (Erodium cicutarium L.) - Géraniacées
-F
-Folle avoine (Avena fatua L.) - Poacées
-Fumeterre officinale (Fumaria officinalis L.) - Fumariacées
-G
-Gaillet gratteron (Galium aparine L.) - Rubiacées
+Erodium à feuilles de ciguë (Erodium cicutarium L.) - Géraniacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des principales adventices en France</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Folle avoine (Avena fatua L.) - Poacées
+Fumeterre officinale (Fumaria officinalis L.) - Fumariacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des principales adventices en France</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Gaillet gratteron (Galium aparine L.) - Rubiacées
 Galinsoga (Galinsoga aristulata Bicknell) - Composées
 Géranium à feuilles découpées ou disséqué (Geranium dissectum L.) - Géraniacées
 Géranium fluet ou à tiges grêles (Geranium pusillum L.) - Géraniacées
 Géranium Herbe à Robert (Geranium robertianum L.) - Géraniacées
-Gremil des champs (Lithospermum arvense L.) - Borraginacées
-L
-Laiteron des maraîchers (Sonchus oleraceus L.) - Astéracées
+Gremil des champs (Lithospermum arvense L.) - Borraginacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des principales adventices en France</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Laiteron des maraîchers (Sonchus oleraceus L.) - Astéracées
 Laiteron rude (Sonchus asper Hill) - Astéracées
 Laitue vireuse (Lactuca virosa L.) - Astéracées
 Lamier amplexicaule (Lamium amplexicaule L.) - Lamiacées
@@ -610,25 +897,161 @@
 Lentille hérissée ou vesce hérissée (Vicia hirsuta L.) - Fabacées
 Linaire elatine ou velvote - (Kickxia elatine (L.) Dumort.) - Scrophulariacées
 Liseron des champs (Convolvulus arvensis L.) - Convolvulacées
-Liseron des haies (Calystegia sepium L.) - Convolvulacées
-M
-Mâche ou doucette (Valerianella auricula D.C.) - Valérianacées
+Liseron des haies (Calystegia sepium L.) - Convolvulacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des principales adventices en France</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mâche ou doucette (Valerianella auricula D.C.) - Valérianacées
 Matricaire ou fausse camomille - (Matricaria sp.) - Astéracées
 Mercuriale annuelle (Mercurialis annua L.) - Euphorbiacées
 Morelle noire (Solanum nigrum L.) - Solanacées
 Mouron des champs ou morgeline (Anagallis arvensis L.) - Primulacées
 Mouron des oiseaux (Stellaria media Cyrill) - Caryophyllacées
 Moutarde des champs (Sinapis arvensis L.) - Brassicacées
-Myosotis des champs (Myosotis arvensis Hill) - Borraginacées
-N
-Neslie à panicule (Neslia paniculata Desv.) - Astéracéess
-O
-Ortie brûlante ou petite ortie (Urtica urens L.) - Urticacées
+Myosotis des champs (Myosotis arvensis Hill) - Borraginacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des principales adventices en France</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Neslie à panicule (Neslia paniculata Desv.) - Astéracéess</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des principales adventices en France</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Ortie brûlante ou petite ortie (Urtica urens L.) - Urticacées
 Ortie commune ou dioïque ou grande ortie (Urtica dioica L.) - Urticacées
 Ortie royale (Galeopsis tetrahit L.) - Lamiacées
-Oxalis corniculé (Oxalis corniculata L.) - Oxalidacées
-P
-Panic ou panice ou pied de coq (Panicum crus-galli P.B.) - Poacées
+Oxalis corniculé (Oxalis corniculata L.) - Oxalidacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des principales adventices en France</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Panic ou panice ou pied de coq (Panicum crus-galli P.B.) - Poacées
 Passerage champêtre (Lepidium campestre L.) - Brassicacées
 Patience crépue ou parelle (Rumex crispus L.) - Polygonacées
 Patience à feuilles obtuses (Rumex obtusifolius L.) - Polygonacées
@@ -644,25 +1067,161 @@
 Plantain élevé ou grand plantain - (Plantago major L.) - Plantaginacées
 Plantain lancéolé (Plantago lanceolata L.) - Plantaginacées
 Pourpier (Portulaca oleracea) - Portulacacées
-Prêle (Equisetum sp.)
-R
-Ravenelle (Raphanus raphanistrum L.) - Brassicacées
+Prêle (Equisetum sp.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des principales adventices en France</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Ravenelle (Raphanus raphanistrum L.) - Brassicacées
 Ray-grass ou ivraie - (Lolium multiflorum Lame.) - Poacées
 Renoncule des champs (Ranunculus arvensis L.) - Renonculacées
 Renoncule des marais (Ranunculus paludosus Poir.) - Renonculacées
 Renouée des oiseaux (Polygonum aviculare) - Polygonacées
 Renouée liseron (Polygonum convolvulus L.) - Polygonacées
 Renouée persicaire (Polygonum persicaria L.) - Polygonacées
-Réséda jaune (Reseda lutea L.) - Résédacées
-S
-Séneçon commun (Senecio vulgaris L.) - Astéracées
+Réséda jaune (Reseda lutea L.) - Résédacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des principales adventices en France</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Séneçon commun (Senecio vulgaris L.) - Astéracées
 Sétaire (Setaria sp.) - Poacées
 Souci des champs (Calendula arvensis L.) - Astéracées
-Spergule des champs (Spergua arvensis L.) - Caryophyllacées
-T
-Tussilage (Tussilago farfara L.) - Astéracées
-V
-Véronique à feuilles de lierre (Veronica hederaefolia L.) - Scrophulariacées
+Spergule des champs (Spergua arvensis L.) - Caryophyllacées</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des principales adventices en France</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Tussilage (Tussilago farfara L.) - Astéracées</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_principales_adventices_en_France</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des principales adventices en France</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Véronique à feuilles de lierre (Veronica hederaefolia L.) - Scrophulariacées
 Véronique de Perse (Veronica persica Poir.) - Scrophulariacées
 Vesce commune (Vicia sativa L.) - Fabacées
 Vulpie queue de rat (Vulpia myuros L.) - Poacées
